--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="20540" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,6 +24,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Alan Jose do Nascimento</author>
+    <author>Alan Jose Nascimento</author>
   </authors>
   <commentList>
     <comment ref="F8" authorId="0">
@@ -51,7 +57,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Eu não quero saber o que você gostou do que você viu, eu quero saber o que você fez com o que você viu. (f)
 </t>
@@ -61,7 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Não se deve pensar na frente do cliente, na frente do clinete de o seu show.
 - Manda quem paga a conta (f)
@@ -77,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Alan:
 Tenha um número definido (objetivo financeiro)
@@ -95,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Alan:
 Não precisa anotar nem montar um plano para colocar as dicas em prática. Apenas receba com atenção e conecte isso com o objetivo que você criou aula passada.
@@ -115,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -130,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Alan:
 </t>
@@ -140,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">- Eu não me esforço para fazer coisas dificies, eu me esforco para tornar essas coisas faceis de serem feitas;
 </t>
@@ -151,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 -Pense Grande;
@@ -162,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">- Se permita acreditar em coisas grandes, o que você ainda não acredita é questão de tempo para você acreditar;
 </t>
@@ -177,7 +183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Alan:
 </t>
@@ -187,11 +193,35 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>"Ninguém chega ao sucesso sem a capacidade de influenciar os outros e vender nada mais é do que influenciar pessoas". Entenda mais sobre essa relação, nesta aula.
 - As pessoas compram um estilo de vida, um conceito, uma forma de encarar a vida delas;
 - Onde você quer chegar?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -200,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -347,6 +377,9 @@
   </si>
   <si>
     <t>Nenhum negócio vai muito longe sem alguém para vendê-lo, de preferência alguém que acredite nele.</t>
+  </si>
+  <si>
+    <t>A melhor habilidade que um vendedor pode desenvolver é a de acreditar que o que ele está fazendo é importante.</t>
   </si>
 </sst>
 </file>
@@ -383,16 +416,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -754,22 +787,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -792,7 +825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -806,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -840,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -857,7 +890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -891,7 +924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -908,7 +941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -926,7 +959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -935,13 +968,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -958,7 +991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -975,15 +1008,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -991,7 +1033,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1041,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1049,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1016,13 +1058,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1072,7 @@
         <v>1.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1038,7 +1080,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1088,7 @@
         <v>1.4583333333333332E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1096,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1104,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1112,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1079,13 +1121,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1093,7 +1135,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1101,7 +1143,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1109,7 +1151,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1159,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1125,7 +1167,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1175,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1141,7 +1183,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1149,7 +1191,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1157,7 +1199,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1208,7 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1174,8 +1216,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1185,9 +1232,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1197,8 +1249,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="20540" windowHeight="11720"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="25380" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -225,12 +225,338 @@
         </r>
       </text>
     </comment>
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Alan:
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pare de gerar resultados que comprove a sua tese"que não funciona"
+- O medo de vender vem de não saber o que falar para as pessoas;
+1 -  Se importe com as pessoas, se você não fizer por você faça pelo outro;
+2 - clareza dos objetivos
+3 - querer ficar bom nisto
+4 - implementação </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">(vc não tem um resultado pela quantidade de coisas que você mas pela escolha do que vai fazer) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>faça o  beaba bem feito e repita</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+5 - observação, observe pessoas que vendem bem, o que importa é o resultado o resto é desculpa.
+6 - comece a se comportar como a pessoa que vc quer se tornar. (historia do aparenta enquanto tenta)
+7 - faça isso com dedicação
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Alan:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Como separar a entrega da venda
+-o que vc não consegue vender vc não consegue melhorar.
+- quem cuida da venda é quem está na cadeira do vendedor.
+- aquisição de clientes 
+- sucesso do cliente
+o que determina aonde podemos chegar é a capacidade de atrair clientes.
+dicas 
+lista com 10 coisas que fiz ultimamente
+lista com 10 coisas que pretendo fazer
+5 coisas (ideias) que posso fazer para melhorar a aquisição de cliente, coisas simples ( se o sucesso depende disso o que pode ser feito)
+atenção --&gt; Confiança --&gt; Dinheiro
+ O MAIOR RESULTADO PARA A EMPRESA VEM DO DEPARTAMENTO DE AQUISIÇÃO DE CLIENTES
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan:
+- a quantidade de coisas que a gente aprende não é mais importante do que as coisas que você implementa.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Revisite sempre as coisas importantes
+- Qual é o teu motivo 
+- Plante um mudança, tenha objetivos.
+Desafio
+Selecione 5 pessoas referencia em vendas.
+Ninguem que faz algo grande no mundo fez sem se expor.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sucesso se mede pela transformação que geramos nas pessoas.
+O jogo só funciona se ele estiver dando resultado
+O motivo deve ser sempre do seu cliente 
+Sempre temos que colocar o cliente no centro. Não empreenda por motivos pessoais.
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">A paixão deve estar orientada pelo problema das pessoas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Se realizar se realizando fazendo o que você faz
+Gerar resultado fazendo que você faz. Passe para o seu cerebro fazendo 
+O que vc faz é por você ou pelo outro. Se for pela pessoa se esforce para fazer do</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> jeito que ela precisa</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Faça do seu produto ou serviço relevante para as pessoas</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Desenvolva um olhar que busque problemas!!!!
+A sua copy deve resolver o problema de alguém!!!!! Se apaixone pelo problema!!!
+A melhor forma de se realizar um sonho é conectando esse sonho com o sonho de alguém 
+Sempre tem um problema por tras de um jogo que ta dando certo.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O que vai acontecer comigo se eu te der dinheiro;
+A conclusão deve partir de mim.
+Deixar o como sempre pra frente a minha historia no final, so falo para as pessoas 
+Dica do papo de churrasco:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Você vai deixar o como sempre um pouquinho mais para frente...
+E a minha história você vai deixar sempre para o final
+Só fale para as pessoas como eu vou fazer, se as pessoas se interessarem para que eu faça isso por elas.
+Dicas: 
+1 - Para cada insight que voce tiver anote pelo menos</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> 1 ação</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">. Wilton Neto
+Pense nas ações para colocar em pratica.
+2 - Para cada uma hora de conhecimento adquirido, estudo, dedique pelo </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">menos uma hora de execução (Victor Damasio, mas é de outra fonte)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Ação que gera transformação!!! Entenda quais são os problemas do seu cliente e comece a fazer ações.
+As pessoas compram futuro!!! 
+Observe que temos de ter objetivo;
+qual problema do cliente, ou qual eu escolho resolver;
+clareza do que faço pela pessoa, entendo que ela quer um futuro diferente.
+Separar o que eu faço do que como eu faço.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Alan Jose Nascimento:
+SE o problema não existe, nao tente convencer o seu cliente  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -380,13 +706,31 @@
   </si>
   <si>
     <t>A melhor habilidade que um vendedor pode desenvolver é a de acreditar que o que ele está fazendo é importante.</t>
+  </si>
+  <si>
+    <t>Seu cliente não vai reparar no seu medo de vender se a sua mensagem for mais atraente que seu medo.</t>
+  </si>
+  <si>
+    <t>Você pode fazer coisas incríveis e mudar a forma como as pessoas vivem, mas primeiro você vai precisar vender para elas.</t>
+  </si>
+  <si>
+    <t>Aprender a vender foi a melhor forma que eu encontrei de deizer para os meus sonhos que eu acredito neles.</t>
+  </si>
+  <si>
+    <t>Para que eliminar o seu medo se você pode aprender a brincar com ele? Bruno Juliani</t>
+  </si>
+  <si>
+    <t>O melhor jeito de realizar um sonho é conectando ele ao sonho de alguém.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As pessoas não compram produtos ou serviços, elas compram a possibilidade de um futuro melhor. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +771,42 @@
       <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -787,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1025,31 +1405,58 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>1.5277777777777777E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>1.7361111111111112E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1058,37 +1465,64 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="2">
         <v>1.5972222222222224E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2">
         <v>1.9444444444444445E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="2">
         <v>1.4583333333333332E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1096,7 +1530,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1538,7 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1546,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1121,13 +1555,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1569,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1577,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>33</v>
       </c>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="25380" windowHeight="14480"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -355,6 +355,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wilton Neto:
+- Nunca anote uma ideia sem colocar pelo menos uma ação possível para ela.
+Victor Damásio:
+- Para cada hora de estudo, separe pelo menos uma hora de implementação.
+Elton Euler:
+- Nunca deixe de citar a fonte, isso não te diminui, muito pelo contrário.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F23" authorId="1">
       <text>
         <r>
@@ -537,7 +566,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Alan Jose Nascimento:
-SE o problema não existe, nao tente convencer o seu cliente  </t>
+</t>
         </r>
         <r>
           <rPr>
@@ -546,7 +575,53 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t>Se o problema não existe, nao tente convencer o seu cliente que ele tem um problema.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Busque problemas que geram desconforto para o seu cliente num ponto que gere ele ficar paralisado.
+O cliente sempre sabe o que quer, mas não sabe como chegar no final (solução), normalmente ele ja tentou resolver e não deu conta normalmente esse já tentou resolver e não conseguiu.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Alan:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Coloque à disposição dos seus clientes o que você tem de melhor a serviço das pessoas, para que elas se livrem dos problemas que elas tem, com uma mensagem super clara.
 </t>
         </r>
       </text>
@@ -556,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -724,13 +799,67 @@
   </si>
   <si>
     <t xml:space="preserve">As pessoas não compram produtos ou serviços, elas compram a possibilidade de um futuro melhor. </t>
+  </si>
+  <si>
+    <t>O Sucesso está em se apaixonar pelo problema, não pela solução</t>
+  </si>
+  <si>
+    <t>Se você soubesse o quanto pode ser útil para o Mundo, acreditaria um pouco mais em você.</t>
+  </si>
+  <si>
+    <t>Módulo 6 - Produzindo Conteúdos</t>
+  </si>
+  <si>
+    <t>A2. Seu perfil "Viva a Segunda" e a sua comunicação</t>
+  </si>
+  <si>
+    <t>A3. Relevância x Consistência</t>
+  </si>
+  <si>
+    <t>A4. Ganhando o Cliente</t>
+  </si>
+  <si>
+    <t>A5. Como construir um #PapoQueCola</t>
+  </si>
+  <si>
+    <t>A6. 07 Dicas para um bom #PapoQueCola</t>
+  </si>
+  <si>
+    <t>[Extra] Exemplo de #PapoQueCola - Vivi Mazotti</t>
+  </si>
+  <si>
+    <t>A7. Fechamento</t>
+  </si>
+  <si>
+    <t>Módulo 7 - Encerramento</t>
+  </si>
+  <si>
+    <t>A2. Revendo o que você faz pelas pessoas</t>
+  </si>
+  <si>
+    <t>A3. Olhando novamente para os seus objetivos</t>
+  </si>
+  <si>
+    <t>A4. Pensando em formas de atrair as pessoas</t>
+  </si>
+  <si>
+    <t>A5. Como criar experimentação para as pessoas?</t>
+  </si>
+  <si>
+    <t>A6. Afinando o fechamento</t>
+  </si>
+  <si>
+    <t>A7. Exemplo de Funil</t>
+  </si>
+  <si>
+    <t>A8. Mapa de Ação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +936,19 @@
       <sz val="13"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1165,24 +1307,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G40"/>
+  <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1348,13 +1490,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1388,7 +1530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1422,7 +1564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1598,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1465,13 +1607,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +1630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1522,15 +1664,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1538,15 +1689,24 @@
         <v>2.8472222222222222E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1555,13 +1715,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1729,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1737,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1585,7 +1745,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1753,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1761,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1769,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1617,7 +1777,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1625,7 +1785,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1793,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -1642,16 +1802,255 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="4"/>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3">
+        <f>SUM(B41:B49)</f>
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3">
+        <f>SUM(B52:B59)</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="3">
+        <f>SUM(B62:B69)</f>
+        <v>8.4722222222222227E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1666,7 +2065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -1683,7 +2082,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -853,6 +853,9 @@
   </si>
   <si>
     <t>A8. Mapa de Ação</t>
+  </si>
+  <si>
+    <t>Você não precisa ser nota dez em tudo para ter sucesso, só naquilo que as pessoas precisam de você.</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,6 +973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -983,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,6 +1014,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,6 +1699,15 @@
       </c>
       <c r="B26" s="2">
         <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="980" yWindow="520" windowWidth="23220" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -363,7 +363,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Alan Jose do Nascimento:</t>
         </r>
@@ -372,7 +372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Wilton Neto:
@@ -609,20 +609,74 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Alan:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Coloque à disposição dos seus clientes o que você tem de melhor a serviço das pessoas, para que elas se livrem dos problemas que elas tem, com uma mensagem super clara.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Alan:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Coloque à disposição dos seus clientes o que você tem de melhor a serviço das pessoas, para que elas se livrem dos problemas que elas tem, com uma mensagem super clara.
-</t>
+          <t xml:space="preserve">
+Necessidade 
+Clareza
+Verdade
+despertar interesse 
+Isso que precisa ter na sua frase, e o cliente tem de entender e ter coragem de repetir isso depois.
+O que diz se vc ta no caminho certo é a cara que o cliente faz apoie ouvir a frase.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A relevancia é muito mais importante que a consistencia</t>
         </r>
       </text>
     </comment>
@@ -631,7 +685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -856,13 +910,31 @@
   </si>
   <si>
     <t>Você não precisa ser nota dez em tudo para ter sucesso, só naquilo que as pessoas precisam de você.</t>
+  </si>
+  <si>
+    <t>A cara que o seu cliente faz quando você pede dinheiro para ele diz se você está no caminho certo.</t>
+  </si>
+  <si>
+    <t>A2. O que um vendedor faz?</t>
+  </si>
+  <si>
+    <t>A3. 03 coisas que matam qualquer venda</t>
+  </si>
+  <si>
+    <t>A4. Encontrando o equilíbrio nas vendas</t>
+  </si>
+  <si>
+    <t>A5. Diferença entre Venda e Oferta</t>
+  </si>
+  <si>
+    <t>A6. O poder das etapas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,19 +1011,6 @@
       <sz val="13"/>
       <color indexed="81"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1319,24 +1378,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G70"/>
+  <dimension ref="A3:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D26" sqref="C26:D26"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +1552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1502,13 +1561,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1593,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1619,13 +1678,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1642,7 +1701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1752,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +1786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1736,342 +1795,335 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <f>SUM(B30:B36)</f>
+        <v>9.4444444444444442E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B40" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B41" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B42" s="2">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B43" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B44" s="2">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B45" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B46" s="2">
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B47" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="3">
-        <f>SUM(B30:B38)</f>
+      <c r="B48" s="3">
+        <f>SUM(B39:B47)</f>
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
-        <v>7.6388888888888886E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="B50" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="3">
+        <f>SUM(B50:B57)</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2">
-        <v>8.3333333333333332E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="2">
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.3194444444444444E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.7361111111111112E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2.7777777777777779E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="3">
-        <f>SUM(B41:B49)</f>
-        <v>0.10069444444444443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2">
-        <v>5.5555555555555558E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.5972222222222224E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.0416666666666666E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3.1944444444444449E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2">
-        <v>9.0277777777777787E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4.5833333333333337E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="2">
-        <v>3.472222222222222E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="3">
-        <f>SUM(B52:B59)</f>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="2">
-        <v>6.2499999999999995E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="2">
-        <v>9.7222222222222224E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="2">
-        <v>9.0277777777777787E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="2">
-        <v>9.0277777777777787E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1.4583333333333332E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B70" s="3">
-        <f>SUM(B62:B69)</f>
+      <c r="B68" s="3">
+        <f>SUM(B60:B67)</f>
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2086,7 +2138,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -2103,7 +2155,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="520" windowWidth="23220" windowHeight="13820"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="23220" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,85 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-A relevancia é muito mais importante que a consistencia</t>
+A relevancia é muito mais importante que a consistencia
+O cliente precisa balançar a cabeça 3 vezes antes de te dizer sim!!!!
+Consistencia nao supera a relevancia, nao busque só a consistencia.
+Se ta ruim tira!!!!! Não faça conteudo sem proposito
+O que entra na conta é a mensagem que passamos para o cliente.
+O que estou falando que o meu cliente gosta, prestar atenção.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dica: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Nunca crie sozinho, crie com alguém que vai consumir seu conteudo</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Busque sempre a relevância.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Toda vez que for aumentar a consistenca cuidado para nao perder a relevancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F64" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Seguem os links das dicas:
+VideoMaker da Ozi: http://eu.queroumvideomaker.com/
+Meu Editor: Heider Freitas 61 98507 1172
+Qual o melhor formato de experiementação que eu gosto e posso gerar?
+Separar as 3 principais ideias do papo que cola colocar no espaco de ideias do canvas 
+Experimentacao tem que acontecer no meu ambiente;
+Definir o formato da entrega das 3 ideias (vides, ebook, palestra etc)
+</t>
         </r>
       </text>
     </comment>
@@ -685,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -928,13 +1006,28 @@
   </si>
   <si>
     <t>A6. O poder das etapas</t>
+  </si>
+  <si>
+    <t>Quando penso que cheguei ao meu limite descubro que tenhos forças para ir além - Ayrton Senna</t>
+  </si>
+  <si>
+    <t>Danem-se as estatisticas. Faça o seu destino do seu jeito. Victor Ribeiro</t>
+  </si>
+  <si>
+    <t>A melhor mensagem será sempre aquela construída mais perto do cliente</t>
+  </si>
+  <si>
+    <t>Uma boa experimentação pode fazer as pessoas desejarem um futuro que elas nem sabem que existe.</t>
+  </si>
+  <si>
+    <t>Viva de modo que o seu melhor fique para a posteridade e não pare,. Michael Jackson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1105,12 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1051,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1076,6 +1175,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1962,13 +2066,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +2080,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1984,15 +2088,24 @@
         <v>1.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2000,15 +2113,26 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="12">
         <v>3.1944444444444449E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="C54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="13"/>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2140,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2148,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2156,7 @@
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -2041,21 +2165,30 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="2">
         <v>6.2499999999999995E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2063,7 +2196,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2071,7 +2204,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2079,15 +2212,24 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="2">
         <v>9.0277777777777787E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2095,7 +2237,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2103,15 +2245,24 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="2">
         <v>1.4583333333333332E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="23220" windowHeight="13820"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="25180" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -656,6 +656,227 @@
         </r>
       </text>
     </comment>
+    <comment ref="F50" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Como construir 
+Perfeito nada mais é que o simples perfeito (marcelo singulani)
+comunicacao leve
+repetição leva perfeição: faça o simples varias vezes 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Perfis viva segunda...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Shiny Happy People: dica</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> --&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> entenda que a sua mensagem tambem tem que ser importante para o outro e alem de ser verdade ela precisa entendida.
+ama aquilo mas nao consegue viver daquilo.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Seraci</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dica --&gt; tenha coragem de focar e decidir quem é a pessoal que você vai ajudar
+toca varias coisas ao mesmo tempo problema de foco, nao tem coragem de identificar um nicho e trabalhar com aquilo. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Trabalhador sem alma dica dica </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>--&gt; precisa aprender a se importar mais com ele para depois ele dar conta de se importar com o outro</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nao consegue se importarm com outro
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>garimpeiro do proposito:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> dica --&gt; voce está nessa busca o seu cliente nao, ele quer algo concreto
+Super dica: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cuidado para nao colocar a busca do seu proposito na frente do seu cliente</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tende a subjetivar as coisas relatizar tudo....
+nao tente encontrar seu proposito na sua menasgem...
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Cara da Grana: dica --&gt;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Tente encontrar um proposito para colocar toda a sua expertise em pratica isso vai te ajudar a se importar com as pessoas, voce vai se conectar com elas , você vai se relacionar com elas e voce nao vai perder nada pelo contrario voce vai ganhar mais dinheiro ainda.
+Super dica: quer ganhar mais dinheiro coloque empatia em pratica
+Mentalidade focada em resultado, entende quem manda é o cliente, mas ele nao consegue se importar com o cliente.
+Nao cria vinculo no relacionamento, e gera comunicação mercenaria
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="15"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Super Realizado</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> dica --&gt;  Não desista de levar essa mensagem desse  jeito, de entregar o seu produto dessa forma por oque o Super Realizado tem a capacidade de ser Honesto, integro e gerar valor para as pessoas como poucos empreendedores tem 
+ele faz o que gosta.!!!
+esta </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F52" authorId="1">
       <text>
         <r>
@@ -724,6 +945,118 @@
           </rPr>
           <t xml:space="preserve">
 Toda vez que for aumentar a consistenca cuidado para nao perder a relevancia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+o cliente deve concordar com a gente de pouquinho em pouquinho:
+Construa uma ponte entreo seu objetivo e o objetivo do seu cliente.
+Insight da aula : 5:04
+Não é por que você toca na dor, que você sera a pessoa mais indicada para ajudar a resolver essa minha dor.
+Temos que construir uma percepção na cabeça do cliente, por isso devemos montar na pedaço por pedaço.
+As pessoas compram um futuro melhor!!1
+Temos que conseguir a atençao das pessoas para gerar uma conexão intença e fazer a cabeça balancar a cabeça 3 vezes e se possivel colocar a mão no queixo.....
+Exemplo do médico com dor no ombro 
+explicar 3 coisas basicas:
+! - por que eu cai no buraco;
+2 -Por que eu nao consegui sair do buraco;
+3 - como eu vou sair do buraco agora
+atencao --&gt; confianca --&gt; dinheiro
+papo de cola em leitura em Z
+a analise combinatoria apos fazer leitura de baixo para cima
+o objetivo do papo que cola fazer a cabeça 3x antes de receber a oferta isso faz gerar autoridade proximidade e aumenta a sua carga de auntenticidade.
+entender os passos de construição de um bom papo que cola!!!!!
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>ALÉM DE FAZER BEM FEITO FAÇA DO SEU JEITO!!!!!!!!!!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F55" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Dica 1 :
+Trabalhe com 1 informacção por post-it
+Dica 2 :
+Sempre coloque um verbo (seu cliente "tem")
+Dica 3 :
+Nao ofenda seu cliente 
+Dica 4 :
+nao coloque informações tendenciosas
+Dica 5:
+Nao coloque informacoes que seja importatnte apenas para voce
+Dica 6 :
+tire tudo que nao fizer sentido
+Dica 7:
+Evolua sempre
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F57" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pratica é o que leva a perfeição
+</t>
         </r>
       </text>
     </comment>
@@ -758,12 +1091,85 @@
         </r>
       </text>
     </comment>
+    <comment ref="F66" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fazer um flow, o cliente precisa navegar 
+atração - experimentação - fechamento (base do humanes)
+Replay dos encontrols online 2 e 3
+webinar tem detalhes no replay nr 3, trabalhar no funil o que ja deu conta de vender na rua
+Mentalidade comunicativa.
+Criar um quizz, com o nome  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Raio X - Financeiro, qualificar a possivel lead de 3 formas (perfil) .</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nota baixa &lt;5   mostrar perigos de continuar assim 
+nota media entre 5 e 8 mostrar perigos de continuar assim 
+nota alta acima de 8 mostrar perigos de continuar assim 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">se esta experimentacao der certo vendeu converteu, fazer webinar </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ferramentas utilizadas para implementação desse funil:
+Mapa Mental: MindMeister ok.
+Quiz (teste): OutGrow https://outgrow.co/
+Robô (Bot): ManyChat https://manychat.com/
+Integrador: Zapier https://zapier.com/
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1021,13 +1427,31 @@
   </si>
   <si>
     <t>Viva de modo que o seu melhor fique para a posteridade e não pare,. Michael Jackson</t>
+  </si>
+  <si>
+    <t>É melhor as pessoas não gostarem de você pelo que você é do que gostarem pelo que você não é. Victor Damasio</t>
+  </si>
+  <si>
+    <t>Perfeito nada mais é do que o simples bem feito. Marcelo Singulani</t>
+  </si>
+  <si>
+    <t>Sua familia vai te apoiar depois de entender o que você faz. Comece explicando e vendendo o que você faz para quem te ama.Helen Caetano</t>
+  </si>
+  <si>
+    <t>Por dentro os heróis são como você e eu, pessoas comuns tentando fazer o seu melhor</t>
+  </si>
+  <si>
+    <t>O unico atalho que existe é a persistência. Paulo Pereira</t>
+  </si>
+  <si>
+    <t>total curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1535,38 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1147,8 +1603,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1182,7 +1644,13 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1482,11 +1950,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G68"/>
+  <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -2079,6 +2545,15 @@
       <c r="B50" s="2">
         <v>5.5555555555555558E-3</v>
       </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
@@ -2087,6 +2562,15 @@
       <c r="B51" s="2">
         <v>1.5972222222222224E-2</v>
       </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
@@ -2111,6 +2595,15 @@
       </c>
       <c r="B53" s="2">
         <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2139,6 +2632,15 @@
       <c r="B55" s="2">
         <v>9.0277777777777787E-3</v>
       </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
@@ -2155,6 +2657,15 @@
       <c r="B57" s="2">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
@@ -2244,6 +2755,15 @@
       <c r="B66" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
@@ -2269,6 +2789,15 @@
       <c r="B68" s="3">
         <f>SUM(B60:B67)</f>
         <v>8.4722222222222227E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2">
+        <f>SUM(B12,B20,B28,B37,B48,B58,B68)</f>
+        <v>0.66875000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -656,6 +656,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="F31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A pessoa mais indicada para dizer o que ele disse era ele.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">A pessoa mais indicada para dizer o que voce tem para dizer é você
+O cliente nao tem condiçoes de tomar a melhor decisão sem a minha ajuda
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Temos que conduzir o cliente pelo processo de decisão fazendo o papel de ocnselheiro.
+O meu papel e ajudar as pessoas a decidir. A melhor opção para as pessoas sou eu!!!!!
+Ao asusmir o papel de conselheiro temos mais coragem de mostrar as coisas para o cliente.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F50" authorId="1">
       <text>
         <r>
@@ -1169,7 +1216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1445,6 +1492,9 @@
   </si>
   <si>
     <t>total curso</t>
+  </si>
+  <si>
+    <t>Você é a pessoa mais para opinar sobre a decisão de compra do seu cliente.</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +2002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -2394,6 +2446,15 @@
       </c>
       <c r="B31" s="2">
         <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7">

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="25180" windowHeight="14740"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -676,29 +676,116 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
 A pessoa mais indicada para dizer o que ele disse era ele.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">A pessoa mais indicada para dizer o que voce tem para dizer é você
+A pessoa mais indicada para dizer o que voce tem para dizer é você
 O cliente nao tem condiçoes de tomar a melhor decisão sem a minha ajuda
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">Temos que conduzir o cliente pelo processo de decisão fazendo o papel de ocnselheiro.
+Temos que conduzir o cliente pelo processo de decisão fazendo o papel de ocnselheiro.
 O meu papel e ajudar as pessoas a decidir. A melhor opção para as pessoas sou eu!!!!!
 Ao asusmir o papel de conselheiro temos mais coragem de mostrar as coisas para o cliente.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Pense em caixinhas e de preferencia sequencia:
+3 coisas que impedem as vendas
+2 amigos estavam na floretas e aparecue um urso e um dos amigos passou a amarrar os sapatos....
+3 coisas pode matar o resultado
+pense de forma estrategica
+1 - não oferecer, ou não oferecer o suficiente;
+2 - ofertar/oferecer do jeito errado
+3 - Estar oferecendo a coisa errada
+A solucao é a forma com o que você faz o seu cliente alcance o objetivo que ele tem.
+(O cliente só quer o beneficio)
+O cliente precisa comprar o beneficio, transformacao, o futuro que vc ta prometendo.
+alinhar volume de vendas x volume de pessoas suficiente
+ofertar o que as pessoas querem.!
+Pessoas diferentes querem coisas diferentes, por isso a escolha do nicho é importante.
+Prmissas:
+foca no publico;
+faça oferta no nivel suficiente;
+faça oferta do jeito certo;
+oferte para pessoas aquilo que elas querem (beneficio, transformacao, um futuro melhor)
+resolva as coisas por etapa
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+venda é diferente de oferta
+vc precisa estar se vendendo o tempo todo.
+Vendedor sempre vende e faz oferta de vez em quando.
 </t>
         </r>
       </text>
@@ -1216,7 +1303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1495,6 +1582,12 @@
   </si>
   <si>
     <t>Você é a pessoa mais para opinar sobre a decisão de compra do seu cliente.</t>
+  </si>
+  <si>
+    <t>Os nossos resultados são proporcionais a nossa capacidade de nos comunicarmos com os outros e com nós mesmos. Anthony Robbins</t>
+  </si>
+  <si>
+    <t>O melhor momento para fazer uma oferta ou um pedido de casamento é quando a outra parte já esta esperando, de preferencia desejando</t>
   </si>
 </sst>
 </file>
@@ -1695,12 +1788,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2002,22 +2095,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2054,7 +2147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2105,7 +2198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2139,7 +2232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2183,13 +2276,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +2299,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2316,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +2333,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2291,7 +2384,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2300,13 +2393,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2340,7 +2433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2357,7 +2450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2374,7 +2467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2391,7 +2484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2408,7 +2501,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -2417,13 +2510,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2457,31 +2550,58 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="2">
         <v>9.7222222222222224E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="2">
         <v>1.5972222222222224E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="2">
         <v>6.2499999999999995E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2489,7 +2609,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2497,7 +2617,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2506,13 +2626,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2520,7 +2640,7 @@
         <v>7.6388888888888886E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2528,7 +2648,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2536,7 +2656,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2544,7 +2664,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2552,7 +2672,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2560,7 +2680,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2568,7 +2688,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2696,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2584,7 +2704,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -2593,13 +2713,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2616,7 +2736,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2633,7 +2753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2650,7 +2770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2667,7 +2787,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2703,7 +2823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2711,7 +2831,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2728,7 +2848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -2737,13 +2857,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2768,7 +2888,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2776,7 +2896,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2784,7 +2904,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2801,7 +2921,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2809,7 +2929,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2826,7 +2946,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2843,7 +2963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -2852,7 +2972,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -2879,7 +2999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -2896,7 +3016,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -790,6 +790,138 @@
         </r>
       </text>
     </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+É inadmissível você falar por falar. Você fala para convencer. Você convence para ajudar. Você ajuda para vender. E você vende para ganhar dinheiro para cumprir o seu objetivo"
+Fale só o que é importante para as pessoas!!!
+SE comunique de forma estrategica.
+"Ao montar a comunicacao temos que montar como um flow de convencimento."
+O "não" tem que fazer parte do nosso dia.
+O seu cliente tem que te dar dinheiro ou te dar a verdade!!!
+Crie uma ponte entre você e seu cliente!!!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+O cliente passa por 3 etapas de decisão: 
+1 - decide resolver o problema
+2 - que tipo de solucao ele vai usar
+3 - ele decide ou não fechar comigo
+O processo de decisão bate com o processo de estrategia de vendas (atracao, experimentacao, fechamento)
+Eu faço Atração --&gt; Cliente Decide resolver o problema
+Gero Experimentação --&gt; Cliente escolhe Tipo de solucao ele vai usar
+Fechamento --&gt; Decide quem ele vai contratar
+Nas duas primeiras etapas eu aqueço e preparo clientes para todo o mercado.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Etapas de decisão é diferente de Etapas de Convencimento</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, que é abordado no curso avançado.
+Se o cliente não avançar a gente também não avança, se o cliente ainda não decidiu resolver o problema não venda.
+Entenda o momento do cliente que tá para 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Responda essas 3 perguntas:
+Qual é o problema do sue cliente e como você vai convencer esse cara a se livrar disso
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1  - Como o seu cliente vai decidir a resolver o problema
+2 - Quais opções o seu cliente tem (aqui entende quais seus concorrentes indiretos, quais opçoes)
+3 - Quais opções o seu cliente tem para ele contratar? (quem sao os concorrentes diretos)
+Só tente ganhar naquilo que você é melhor 
+Sempre deixe o preço pro final senao sempre vc será caro.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marcar no canvas de 1 a 10 as tres perguntas</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F50" authorId="1">
       <text>
         <r>
@@ -1303,7 +1435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1588,13 +1720,22 @@
   </si>
   <si>
     <t>O melhor momento para fazer uma oferta ou um pedido de casamento é quando a outra parte já esta esperando, de preferencia desejando</t>
+  </si>
+  <si>
+    <t>não aplica</t>
+  </si>
+  <si>
+    <t>O seu cliente tem que te dar ou o dinheiro ou a verdade.</t>
+  </si>
+  <si>
+    <t>O maior medo de qualquer pessoa deveria ser o medo de passar batido pela vida. Wilton Neto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,6 +1850,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2095,13 +2249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2144,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>28</v>
@@ -2192,7 +2346,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>30</v>
@@ -2209,7 +2363,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>31</v>
@@ -2226,7 +2380,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>42</v>
@@ -2243,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>47</v>
@@ -2260,7 +2414,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="9" t="s">
@@ -2293,7 +2447,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2310,7 +2464,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -2327,7 +2481,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
@@ -2344,7 +2498,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
@@ -2361,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
@@ -2378,7 +2532,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -2410,7 +2564,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2427,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
@@ -2444,7 +2598,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
@@ -2461,7 +2615,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
         <v>56</v>
@@ -2495,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>57</v>
@@ -2526,8 +2680,8 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
+      <c r="D30" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G30" t="s">
         <v>75</v>
@@ -2543,8 +2697,8 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
+      <c r="D31" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G31" t="s">
         <v>92</v>
@@ -2560,8 +2714,8 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
+      <c r="D32" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>92</v>
@@ -2577,8 +2731,8 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" t="s">
-        <v>26</v>
+      <c r="D33" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>93</v>
@@ -2594,8 +2748,8 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="s">
-        <v>26</v>
+      <c r="D34" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -2639,6 +2793,15 @@
       <c r="B39" s="2">
         <v>7.6388888888888886E-3</v>
       </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2646,6 +2809,15 @@
       </c>
       <c r="B40" s="2">
         <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,8 +3155,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="24740" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -857,7 +857,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Etapas de decisão é diferente de Etapas de Convencimento</t>
         </r>
@@ -879,7 +879,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Responda essas 3 perguntas:
 Qual é o problema do sue cliente e como você vai convencer esse cara a se livrar disso
@@ -890,7 +890,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 1  - Como o seu cliente vai decidir a resolver o problema
@@ -906,7 +906,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Marcar no canvas de 1 a 10 as tres perguntas</t>
         </r>
@@ -915,10 +915,32 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:
+Cuidado para nao criar barreiras entre vocêee o cliente, desça no nivel do cliente.
+"Você pode falar, mas não estiver conectado com quem ouve, a pessoa não vai te acompanhar". Vamos aprender como evitar isso então?
+Não negocie, passe a argumentar com a pessoa. 
+Mantenha a conexão sempre, 
+Listar 5 coisas para mudar na comunicação para ajduar na sua conexão
+Criei conexoes conforme o ambiente.
+https://www.estantevirtual.com.br/livros/roger-fisher-william-ury-bruce-patton/como-chegar-ao-sim/1031881073?ano_min=2014&amp;q=Como%20Chegar%20ao%20Sim&amp;livro_usado=1&amp;gclid=CjwKCAiA07PRBRBJEiwAS20SIHCe8NrRXfLHRQP6qGxDrE39L0wQiSms6bpN1JGALQmUvPzV1VOCthoC_ecQAvD_BwE
+https://www.amazon.com.br/Todos-Se-Comunicam-Poucos-Conectam/dp/8566997271</t>
         </r>
       </text>
     </comment>
@@ -1435,7 +1457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1729,13 +1751,16 @@
   </si>
   <si>
     <t>O maior medo de qualquer pessoa deveria ser o medo de passar batido pela vida. Wilton Neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existem várias formas de se conectar com as pessoas, mas nada funciona tão bem quanto se importar com elas.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,19 +1876,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1942,12 +1954,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2249,22 +2261,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2301,7 +2313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2430,13 +2442,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2470,7 +2482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2521,7 +2533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2547,13 +2559,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2570,7 +2582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2587,7 +2599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -2664,13 +2676,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2780,13 +2792,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2820,15 +2832,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2836,7 +2857,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2844,7 +2865,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2852,7 +2873,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2860,7 +2881,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2868,7 +2889,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2876,7 +2897,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -2885,13 +2906,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2942,7 +2963,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2959,7 +2980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -2978,7 +2999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3003,7 +3024,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3029,13 +3050,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3060,7 +3081,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3068,7 +3089,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3076,7 +3097,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3093,7 +3114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3118,7 +3139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3135,7 +3156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3144,7 +3165,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3155,8 +3176,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3171,7 +3192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3188,7 +3209,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="24740" windowHeight="14100"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -944,6 +944,76 @@
         </r>
       </text>
     </comment>
+    <comment ref="F42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+para não esquecer:
+1. Empatia
+2. Etapas
+3. Vocabulário
+"Caro é não ter dinheiro suficiente para fazer o que precisa ser feito pelas pessoas que bancam seus sonhos."
+A gente ensina o que a gente precisa aprender.... </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fabricio Batista
+Analisar o material de um concorrente para ver se a comunicao esta feita de acordo com o curso.
+dar nota de 0 a 10
+prestar atenção das etapas
+atenção / confiança / dinheiro
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+a sua mensagem pode salvar a vida de alguém!!!
+O poder da sua mensagem é imensurável
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F50" authorId="1">
       <text>
         <r>
@@ -1457,7 +1527,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1754,13 +1824,16 @@
   </si>
   <si>
     <t xml:space="preserve">Existem várias formas de se conectar com as pessoas, mas nada funciona tão bem quanto se importar com elas.  </t>
+  </si>
+  <si>
+    <t>Não importa o quanto a sua mensagem é importante para você. As pessoas só irão se lembrar se for importante para elas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1876,6 +1949,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1954,12 +2040,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2261,22 +2347,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2313,7 +2399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2330,7 +2416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2398,7 +2484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2415,7 +2501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2442,13 +2528,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2465,7 +2551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2482,7 +2568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2499,7 +2585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2516,7 +2602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2533,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2550,7 +2636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2559,13 +2645,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2599,7 +2685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2616,7 +2702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +2719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2667,7 +2753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -2676,13 +2762,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2699,7 +2785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2716,7 +2802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2733,7 +2819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2750,7 +2836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2767,7 +2853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2775,7 +2861,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2783,7 +2869,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2792,13 +2878,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2815,7 +2901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2849,23 +2935,38 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="2">
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="2">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -2873,7 +2974,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2881,7 +2982,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2889,7 +2990,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2897,7 +2998,7 @@
         <v>2.7777777777777779E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -2906,13 +3007,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2929,7 +3030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2946,7 +3047,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2963,7 +3064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2980,7 +3081,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -2999,7 +3100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3016,7 +3117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3024,7 +3125,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3041,7 +3142,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3050,13 +3151,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3073,7 +3174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3081,7 +3182,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3089,7 +3190,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3097,7 +3198,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3114,7 +3215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3122,7 +3223,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3139,7 +3240,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3156,7 +3257,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3165,7 +3266,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3176,8 +3277,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3192,7 +3293,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3209,7 +3310,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="22300" windowHeight="12820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -977,7 +977,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Fabricio Batista
 Analisar o material de um concorrente para ver se a comunicao esta feita de acordo com o curso.
@@ -988,33 +988,116 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F43" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alan Jose do Nascimento:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 a sua mensagem pode salvar a vida de alguém!!!
 O poder da sua mensagem é imensurável
+Perfis viva segunda
+Trabalhador sem alma, faz so o que pedem para ela
+O cara da grana, so pensa no dinheiro ta fazendo um trabalho mas so pensa no dinheiro, nao tem proposito
+SEraci / Sera que : atirar para todos os lados e nao tem foco. sem foco normalmente nao consegue o que quer, e nao tem proposito e nao tem nada que brilha o olho.
+Garimpeiro do proposito: normalmente atingiu um nivel na carreira mas nao é realizado, busca algo que a realiza, sempre ta buscando algo para se realizar.
+Shiny Happy People: traducao literal pessoas alegres e cintilantes, amam o que faz sabe do proposito e tem clareza dos talentos mas nao vive daquilo;
+super realizado: perfil que todo mundo quer ser, trabalha no que gosta, ve beneficios na vida das pessoas, vive de forma plena. usa as habilitades que tem, se diverte pra ganhar dinheiro 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="1">
+    <comment ref="F44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Quando vc oferece e recebe um não, vc deveria se perguntar :
+1Eu deveria estar oferecendo o meu produto / servico para esta pessoa?
+2 - Essa pessoa tem o problema que eu pretendo resolver ?
+3 - Essa pessoa ja decidiu resolver o problema?
+4 - 
+dependendo das respostas uma outra pergunta tambem é 
+essa pessoa decidiu resolver o problema com o seu tipo de solucao.
+Sempre entenda quem é o seu "nao cliente"
+Se o cliente nao comprou de mim o problema nao sou eu e sim avaliar esses 3 detalhes:
+1 onde foi que voce errou; 
+       atração? atraiu a pessoa certa, ta afim de resolver o problema e quer o tipo de solucao, mas o preco ela da conta de pagar, se a pessoa esperava um tipo de solucao sofisticada e ta barato demais ela associa a uma qualidade inferior.
+poder aquisitivo;
+time;
+entenda a atração 
+mostrar diferencia competitivo.
+2 experimentação nao encantou cliente
+3 fechamento 
+perguntas: 
+Maurílio Santana Cordeiro
+1) Eu deveria estar oferecendo a esse cliente? 
+2) Essa pessoa tem o problema que eu pretendo resolver? 
+3) Essa pessoa já decidiu resolver o problema? 
+Analisar os 4 pontos então? 
+1. Atração 
+2. Diferencial competitivo 
+3. Experimentação 
+4. Condução do Fechamento da Venda</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Respeite as regras de venda.
+Venda com mais relevancia
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="1">
+    <comment ref="F52" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="1">
+    <comment ref="F53" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="1">
+    <comment ref="F54" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1355,7 +1438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="1">
+    <comment ref="F56" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="1">
+    <comment ref="F58" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1418,7 +1501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="1">
+    <comment ref="F65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="1">
+    <comment ref="F67" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1527,7 +1610,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1827,13 +1910,22 @@
   </si>
   <si>
     <t>Não importa o quanto a sua mensagem é importante para você. As pessoas só irão se lembrar se for importante para elas.</t>
+  </si>
+  <si>
+    <t>Se você não gosta do que faz, terá poucas chances competindo com alguém que goste. Fabricio Batista</t>
+  </si>
+  <si>
+    <t>Todos os grandes oradores foram péssimos oradores no inicio de suas carreiras. Ralph Waldo Emerson</t>
+  </si>
+  <si>
+    <t>Nossos resultados estão na proporção dos nossos pensamentos. Marcia Belmiro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,19 +2041,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2040,12 +2119,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2347,22 +2426,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2528,13 +2607,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2551,7 +2630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2585,7 +2664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2602,7 +2681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2619,7 +2698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2636,7 +2715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2645,13 +2724,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2685,7 +2764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2702,7 +2781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2719,7 +2798,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -2762,13 +2841,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2785,7 +2864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2802,7 +2881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2819,7 +2898,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2836,7 +2915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2853,7 +2932,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2861,7 +2940,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2869,7 +2948,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -2878,13 +2957,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2901,7 +2980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2918,7 +2997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2935,7 +3014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -2952,7 +3031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -2965,16 +3044,28 @@
       <c r="D43" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="2">
         <v>1.1111111111111112E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2982,7 +3073,7 @@
         <v>1.3194444444444444E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -2990,15 +3081,24 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -3007,13 +3107,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3030,7 +3130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3047,7 +3147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3064,7 +3164,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3081,7 +3181,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -3095,12 +3195,11 @@
         <v>26</v>
       </c>
       <c r="E54" s="11"/>
-      <c r="F54" s="13"/>
       <c r="G54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3113,11 +3212,12 @@
       <c r="D55" t="s">
         <v>26</v>
       </c>
+      <c r="F55" s="13"/>
       <c r="G55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3125,7 +3225,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3142,7 +3242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3151,13 +3251,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3182,7 +3282,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3190,7 +3290,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3198,7 +3298,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3215,7 +3315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3223,7 +3323,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3240,7 +3340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3257,7 +3357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3266,7 +3366,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3277,8 +3377,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3293,7 +3393,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3310,7 +3410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1071,6 +1071,212 @@
         </r>
       </text>
     </comment>
+    <comment ref="F45" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SERACI
+Hanny Happy people
+Garimpeiro do proposito
+A maioria do curso esta em algum desses perfils
+Venda construtivas 
+Construir concordancia progressiva, o cliente começa a caminhada comigo concordando com um pouquinho e pouquinho com as coisas faladas.
+O SIM DEVE SER CONSTRUIDO, METAFORA DO PEDIDO DE CASAMENTO. 
+Ao fazer a oferta voce tem que estar muito proximo do seu cliente
+Balança a cabeça e colocar a mão no queixo, faz o cliente ficar mais proximo.
+Fazer a oferta só no final e 
+A coisa mais importante que o seu cliente vai te dar nao é o dinheiro e sim a PERMISSÃO para  mudar a forma como ele ve o Mundo. 
+O cliente deve receber a oferta somente depois que balançou a cabeça 3 vezes!!!!
+Uma venda na internet temos que construir uma relação com o clente.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>O grande segredo do funil é trabalhar para contruir uma relação de confiança com seu cliente</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O mairo segredo é conseguir pequenos SIM's DO SEU CLIENTE!!!!
+DEVEMOS trazer um diagnostico para o cliente 
+insight: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">VOCE PRECISA DESENVOLVER A SUA CONFIANÇA DE QUE O SIM VAI CHEGAR!!!!! isso faz você vender de forma despretensiosa, e o cliente passa a confiar em você.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Licão do Victor Damasio: Se aproxime das pessoas depois voce venda para elas!
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Nao faca oferta em cima da hora
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>FRase Adriana Marques:
+Você precisa tentar de verdade, voce precisa insistir pois a vida precisa sabre que você quer de verdade</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Na proximidade você tem mais chances de verdar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F46" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Geralmente quando as pessoas esbarram com dificuldades e ficam patinando no marketing digital, muitas vezes é por que ela não sabe o que tava fazendo e piora quando grande parte das vezes esse ponto nem precisa fazer aquilo que esta fazendo.
+mkt digital
+FAzer negocios 
+Se conectar com pessoas
+entregar conteudo 
+Duas perguntas chave:
+Por que voce esta fazendo isso?
+Por que você ta dizendo isso?
+3 coisas para fazer no mkt digital
+1 atrais pessoas
+2 gerar experimentação 
+3 fazer fechamento 
+Dessa forma você so precisa de 3 coisas que as pessoas vão te dar :
+1 Atenção 
+2 Confiança 
+3 Dinheiro
+isso é exatamente a parte inferior do canvas 
+A estrategia é se organizar para pensar em etapas.
+Se a gente nao faz o que precisa ser feito o tempo que você gsata par achegar no seu resultado é muito maior,  o dinheiro que você gastar é muito maior e a grana que você vai ganhar é muito menor, fora todo o desgaste.
+O cliente compra no momento da confiança. 
+Pensamento deve ser orientado, exemplo do funil de começou tentando atrair  500 pessoas mas atraiu 300 das 300 conquistei a confiança de 50 e depois disso 20 te deram dinheiro.desse numeros você comeca a ter metricas 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AQUILO QUE NÃO PODE SER MEDIDO NÃO COMPENSA SER FEITO
+NAO FACA NADA SE VOCE NAO VE MOTIVOS PARA AQUILO SER FEITO.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Licao para fazer apos a aula 
+Abra o facebook e analise a primeira postagem qualquer que aparecer para voce --&gt; 
+tente idendificar o que  a pessoa ta queria atencao, confianca ou dinheiro ;
+analisar se ela consegiu ou nao 
+e tentar corrigir a falha
+Depois observe isso no post de um concorrente meu direto ou indireto 
+Passe a fazer mais a coisa que precisa ser feito, pois isso vai te levar a fazer menos coisas. 
+INSIGHT
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>A nossa inteligência comunicativa começa quando eu decido o que eu quero com a minha mensagem</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Para conseguir isso temos que dar valor a atenção dada pelo o cliente
+Metafora de jogar o jogo de gente grande 2 pessoas 8 pessoas fazendo coisas ruins</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F47" authorId="1">
       <text>
         <r>
@@ -1610,7 +1816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -1919,13 +2125,19 @@
   </si>
   <si>
     <t>Nossos resultados estão na proporção dos nossos pensamentos. Marcia Belmiro</t>
+  </si>
+  <si>
+    <t>Insista, a vida precisa saber o que você quer de verdade. Adriana Marques</t>
+  </si>
+  <si>
+    <t>O que não pode ser medido não compensa ser feito.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2040,6 +2252,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2426,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3072,6 +3290,15 @@
       <c r="B45" s="2">
         <v>1.3194444444444444E-2</v>
       </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
@@ -3079,6 +3306,15 @@
       </c>
       <c r="B46" s="2">
         <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7">

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="22300" windowHeight="12820"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -786,6 +786,132 @@
 venda é diferente de oferta
 vc precisa estar se vendendo o tempo todo.
 Vendedor sempre vende e faz oferta de vez em quando.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se comunicar por etapas vai te ajudar a entender o que você precisa falar para o seu cliente em momentos específicos. E saber o que dizer para as pessoas vale mais do que ouro no mundo dos negócios.
+Você vai agir e se comunicar em três etapas com o seu cliente:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Atração
+Experimentação
+Fechamento
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Em cada uma dessas etapas, você vai se comportar e se comunicar de formas diferentes com o seu cliente.
+Você somente sabe 
+Parte inferior direita do Canvas bloco de 3 colunas com 3 camadas
+O que você deve fazer (etapas da sua condução de venda)
+Processo de convencimento do cliente (como as pessoas decidem)
+Como agir na hora de construir o conteudo (alinhamento entre que eu faço e o que o cliente faz)
+Para que devemos ATRAIR os clientes , não podemos atrair pessoas para coisas do nosso interesse. 
+Conecte a pessoa para descobrir que precisa da solução que você resolve.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Atraia o cliente para uma nova descoberta para novas possibilidades, não atraia pessoas para elas descobrirem que tem problemas.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Importante saber para o que é que estamos atraindo as pessoas.
+Atraia as pessoas para a descoberta de uma possiblidade de uma vida melhor;
+Experimentação: dar o Show, mostrar para o cliente como a vida do cliente poderia ser melhor com vocÊ. 
+O mais iportante na experimentacao é o que o cliente quer saber do seu:
+cuidado 
+condução 
+direcionamento 
+Fechamento 
+O cliente vai dar o "controle" da vida dele, e mostrar como vai ser o futuro.
+Traga um diagnostico completo, 
+Na hora da experimentação de o show, finja que recebeu dinheiro para aquilo,. 
+Durante a experimentação a sua entrega tem que ser total.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dica: Durante a experimentação diga para o cliente exatamente que conclusão você quuer que ele tenha de você 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+voce esta entendendo aqui o que esta acontecendo com vc aqui como se livrar das dividas?
+Percepeção clara durante a experimentação e o que ele vai ter se me der dinheiro
+Se a pessoa nao vai te comprar naquele momento, ela tem de saber levar sua mensagem adiante.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A responsabilidade da compra do cliente é minha
+voce é a pessoa mais indicada para ajudar o seu cliente a tomar a decisão que ele precisa tomar!!!
 </t>
         </r>
       </text>
@@ -1096,7 +1222,7 @@
 Garimpeiro do proposito
 A maioria do curso esta em algum desses perfils
 Venda construtivas 
-Construir concordancia progressiva, o cliente começa a caminhada comigo concordando com um pouquinho e pouquinho com as coisas faladas.
+Construir concordancia progressiva, o cliente começa a caminhada comigo concordando de pouquinho e pouquinho com as coisas faladas.
 O SIM DEVE SER CONSTRUIDO, METAFORA DO PEDIDO DE CASAMENTO. 
 Ao fazer a oferta voce tem que estar muito proximo do seu cliente
 Balança a cabeça e colocar a mão no queixo, faz o cliente ficar mais proximo.
@@ -1179,7 +1305,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Na proximidade você tem mais chances de verdar</t>
+Na proximidade você tem mais chances de vender</t>
         </r>
       </text>
     </comment>
@@ -1644,24 +1770,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="F56" authorId="1">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alan Jose Nascimento:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Dica 1 :
@@ -1677,8 +1803,7 @@
 Dica 6 :
 tire tudo que nao fizer sentido
 Dica 7:
-Evolua sempre
-</t>
+Evolua sempre</t>
         </r>
       </text>
     </comment>
@@ -1816,7 +1941,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -2131,13 +2256,16 @@
   </si>
   <si>
     <t>O que não pode ser medido não compensa ser feito.</t>
+  </si>
+  <si>
+    <t>Se o seu cliente não puder confiar em você na hora de fechar o negócio, o que garante que ele poderá confiar depois?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2259,6 +2387,33 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2304,7 +2459,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2335,14 +2490,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2644,22 +2802,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +2854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2713,7 +2871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2730,7 +2888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +2939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2816,7 +2974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2825,13 +2983,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +3006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +3023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +3040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2899,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2916,7 +3074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2933,7 +3091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2942,13 +3100,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2965,7 +3123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +3140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2999,7 +3157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3016,7 +3174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3033,7 +3191,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -3059,13 +3217,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3099,7 +3257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3116,7 +3274,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3133,7 +3291,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -3150,15 +3308,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="2">
         <v>2.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3166,7 +3333,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -3175,13 +3342,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3198,7 +3365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3382,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3232,7 +3399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3249,7 +3416,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3266,7 +3433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3283,7 +3450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3300,7 +3467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3317,7 +3484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -3343,13 +3510,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3366,7 +3533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3383,7 +3550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3400,7 +3567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3417,7 +3584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -3431,11 +3598,12 @@
         <v>26</v>
       </c>
       <c r="E54" s="11"/>
+      <c r="F54" s="13"/>
       <c r="G54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3448,12 +3616,12 @@
       <c r="D55" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="14"/>
       <c r="G55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3461,7 +3629,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3478,7 +3646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3487,13 +3655,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3510,7 +3678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3518,7 +3686,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3526,7 +3694,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3534,7 +3702,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3551,7 +3719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3559,7 +3727,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3576,7 +3744,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3593,7 +3761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3602,7 +3770,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3613,8 +3781,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3629,7 +3797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3646,7 +3814,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -820,7 +820,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Atração
 Experimentação
@@ -851,7 +851,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Atraia o cliente para uma nova descoberta para novas possibilidades, não atraia pessoas para elas descobrirem que tem problemas.
 </t>
@@ -861,7 +861,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Importante saber para o que é que estamos atraindo as pessoas.
 Atraia as pessoas para a descoberta de uma possiblidade de uma vida melhor;
@@ -894,7 +894,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 voce esta entendendo aqui o que esta acontecendo com vc aqui como se livrar das dividas?
@@ -912,6 +912,89 @@
           </rPr>
           <t xml:space="preserve">A responsabilidade da compra do cliente é minha
 voce é a pessoa mais indicada para ajudar o seu cliente a tomar a decisão que ele precisa tomar!!!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Desenvolver senso de copromisso, responsabilidade para fazer as vendas. Se eu ficar sem vender eu não ajudei ninguém 
+Colocar em prática cumprir os objetivos
+Não é qualquer resultado que vai deixar a sua familia tranquila, que vai fazer que eu tenha o apoio.
+Monte os objetivos.
+O erro faz parte do resultado.
+As vendas são a porta de entrada para o processo de transoformação 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Pare tudo e estabeleça bons objetivos
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">O negocio so existe se voce estiver a servico de alguem que tenha um problema e que queira resolver esse problema.
+Um vendedor ele ajuda as pessoas a decidir.
+Coisas que matam o negocio 
+1 - estar sempre oferecendo (ficar sem oferecer)
+2 - ofertar do jeito certo 
+3 - Ofertar o que as pessoas querem (empatia)
+nao se apaixone pela minha solucao, se apaixone pelo problema do cliente
+o contato com o publico ajuda a entender melhor o problema e identificar o problema, nicho a gente nao define a gente escolhe a partir de um problema que a gente quer resolver 
+Etapas de um processo de vendas:
+Atracao 
+Experimentação
+Fechamento
+A comunicação é a coisa mais importante do seu negócio
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Acredito um pouco mais em si; " nao da para passar a vida no mundo de forma insignificante - insignificante é aquela pessoa que você tira da historia e ela só deixa saudade, ela nao faz falta mas a saudade passa; 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">exemplo do Steve Jobs
+Passe pela vida fazendo algo relevante!!!!
+revise os objetivos, suas metas e nao deixe o tempo passar.
+Quem tenta ajudar pessoas sem objetivos tambem precisa de objetivos.
 </t>
         </r>
       </text>
@@ -1941,7 +2024,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -2265,7 +2348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2389,19 +2472,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2495,12 +2565,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2802,22 +2872,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2854,7 +2924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2871,7 +2941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2939,7 +3009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2956,7 +3026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +3044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -2983,13 +3053,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3006,7 +3076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3074,7 +3144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3091,7 +3161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3100,13 +3170,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3140,7 +3210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3157,7 +3227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3174,7 +3244,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3191,7 +3261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3208,7 +3278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -3217,13 +3287,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3240,7 +3310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3257,7 +3327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3274,7 +3344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3291,7 +3361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -3308,7 +3378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -3325,15 +3395,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="2">
         <v>1.7361111111111112E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -3342,13 +3418,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3365,7 +3441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +3458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3399,7 +3475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3433,7 +3509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3450,7 +3526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3467,7 +3543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3484,7 +3560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3501,7 +3577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -3510,13 +3586,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3550,7 +3626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3567,7 +3643,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3584,7 +3660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -3603,7 +3679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3621,7 +3697,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3629,7 +3705,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3646,7 +3722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3655,13 +3731,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3678,7 +3754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3686,7 +3762,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3694,7 +3770,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3702,7 +3778,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3719,7 +3795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3727,7 +3803,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3744,7 +3820,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3761,7 +3837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3846,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3781,8 +3857,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3797,7 +3873,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3814,7 +3890,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1915,6 +1915,47 @@
         </r>
       </text>
     </comment>
+    <comment ref="F61" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Criar 5 variações da fraseexemplos da aula:
+lembrar que devemos criar um CONTEXTO para deixar a situaçao um pouco mais confortavel.
+pense nas etapas:
+1 Atençao
+2
+3
+exemplo 1:
+Eu sei como fazer pequenos e medios empresarios trabalharem menos e ganharem mais 
+mudou o "eu ajudo" por "eu sei"
+exemplo 2
+Eu diminuo a quantidade de trabalho nas pequenas e médias empresas fazendo seus donos ganharem mais.
+exemplo 3 
+Sua empresa pode te dar menos trabalho e mais dinheiro e eu sei como fazer isso acontecer.
+exemplo 4
+Eu impeço que donos de pequenos e médios negócios trabalhem muito e ganhem pouco.
+exemplo 5 
+Eu faço pequenos e médios empresários pararem de trabalhar muito e ganhar pouco.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F65" authorId="1">
       <text>
         <r>
@@ -2024,7 +2065,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -2872,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3760,6 +3801,12 @@
       </c>
       <c r="B61" s="2">
         <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:7">

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1956,24 +1956,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="1">
+    <comment ref="F64" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Alan Jose Nascimento:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alan Jose do Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Seguem os links das dicas:
@@ -1983,6 +1983,38 @@
 Separar as 3 principais ideias do papo que cola colocar no espaco de ideias do canvas 
 Experimentacao tem que acontecer no meu ambiente;
 Definir o formato da entrega das 3 ideias (vides, ebook, palestra etc)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F65" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Não é justo você se realizar sem trazer resultado financeiro para a sua casa e para a sua família.
+Conduza  melhor o fechamento.
+Dicas:
+1 - Não faça Caridade;
+2 - Não fique com medo na hora do fechamento;
+3 - Não tente vender na internet aquilo que você não conseguiu vender na rua;
+4 - 
+continuar assistindo 
 </t>
         </r>
       </text>
@@ -2606,12 +2638,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2913,22 +2945,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2951,7 +2983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +2997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +3014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2999,7 +3031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3067,7 +3099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -3094,13 +3126,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3117,7 +3149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3151,7 +3183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3185,7 +3217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3202,7 +3234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3211,13 +3243,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3234,7 +3266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3251,7 +3283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3268,7 +3300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3285,7 +3317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3302,7 +3334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3319,7 +3351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -3328,13 +3360,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3351,7 +3383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3368,7 +3400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3385,7 +3417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3402,7 +3434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -3419,7 +3451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -3436,7 +3468,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3450,7 +3482,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -3459,13 +3491,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3482,7 +3514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3499,7 +3531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3516,7 +3548,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3533,7 +3565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3550,7 +3582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3567,7 +3599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3584,7 +3616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3601,7 +3633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3618,7 +3650,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -3627,13 +3659,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3650,7 +3682,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3667,7 +3699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3684,7 +3716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3701,7 +3733,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -3720,7 +3752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3738,7 +3770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3746,7 +3778,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3763,7 +3795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3772,13 +3804,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3795,7 +3827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3809,7 +3841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3817,7 +3849,7 @@
         <v>1.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3825,7 +3857,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3842,7 +3874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3850,7 +3882,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3867,7 +3899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3884,7 +3916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +3925,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3920,7 +3952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3937,7 +3969,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1937,6 +1937,10 @@
           <t xml:space="preserve">
 Criar 5 variações da fraseexemplos da aula:
 lembrar que devemos criar um CONTEXTO para deixar a situaçao um pouco mais confortavel.
+O CONTEXTO É MAIS IMPORTANTE QUE O PROPRIO TEXT, POIS PRECISAMOS PASSAR A PERCEPÇÃO PARA O CLIENTE, QUE PRECISA PERCEBER O QUE A GENTE FAZ.
+As coisas não acontecem de uma vez só, as vezes as pessoas tem dificuldade de se comunicar pois quer fazer tudo de uma vez.
+é um jogo de construção
+NAO EXISTE JORNADA DE UM PASSO SÓ
 pense nas etapas:
 1 Atençao
 2
@@ -1956,6 +1960,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="F62" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alan Jose Nascimento:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+As vezes as coisas nao existem, nao é que elas nao existem por que ninguem deu conta de criar, é por que elas nao devem existir pois ninguem vai pgar por aquilo, historia do yakult de litro. 
+Os produtos devem seguir essa logica:
+3 dicas para desdobrar a frase.
+1 - nao pense por mes pense por ano 
+2 - defina um sprint 
+Pergunta para após chegar no numero inicial ideal:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Para quantas pessoas eu preciso entregar o que elas querem para que elas me deem o que eu quero?
+A comunicação é a ponte entre os seus objetivos e o objetivo de quem esta do lado de cá
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se eu não atendo o objetivo do meu cliente eu não vou ter condições de atender o meu. Manter o foco no problema.
+3 - Fazer uma lista das coisas que você vai fazer!!!! E das coisas que você vai DEIXAR de FAZER!!!!!!!!
+obs.: SE vc esta empreendendo e somente aumenta a lista das coisas que tem de fazer vai chegar uma hora que você vai criar o yakult de litro e ninguem vai comprar pois yakult o interessante é acabar com o frasco e querer mais (ninguem inventou uma barra de bis*)
+Faça a lista do que fazer 
+Faça a lista do que deixar de fazer.
+Lista por fração de tempo:
+Quantos pessoas precisa atingir em cada fração de tempo (ano, semestre, trimestre, mês) 
+Quantas pessoas preciso atender/servir para que neste periodo eu atinja o resultado que eu quero.
+Colocar a lista coisas para fazer 
+Colocar a lista de coisas para deixar de fazer 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Não se comprometa com a tarefa, SEMPRE SE COMPROMETA COM O RESULTADO. 
+Muitas vezes se mantemos fazendo algo por que começamos, e isso gera 
+Senão for me aproximar do meu objetivo devemos tirar da lista!!!!
+Dica de como tirar algo da lista, lembrando que se estamos em dúvida provavelmente devemos tirar da lista, pergunta para ajudar: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">SE eu nao tivesse comecado isso eu começaria hoje?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Se for não tire
+Quem tem objetivo também erra, mas erra mais perto de Acertar.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F64" authorId="0">
       <text>
         <r>
@@ -2097,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="107">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -2415,6 +2511,9 @@
   </si>
   <si>
     <t>Se o seu cliente não puder confiar em você na hora de fechar o negócio, o que garante que ele poderá confiar depois?</t>
+  </si>
+  <si>
+    <t>Não existe jornada de apenas um passo. Priscila Hinkle</t>
   </si>
 </sst>
 </file>
@@ -2638,12 +2737,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2945,22 +3044,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F26" sqref="A26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="109.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +3082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2997,7 +3096,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -3126,13 +3225,13 @@
         <v>9.2361111111111102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3183,7 +3282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3200,7 +3299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3217,7 +3316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3243,13 +3342,13 @@
         <v>6.7361111111111108E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -3266,7 +3365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3283,7 +3382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +3399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3317,11 +3416,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="12">
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -3330,11 +3429,13 @@
       <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13"/>
       <c r="G26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3351,7 +3452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -3360,13 +3461,13 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3383,7 +3484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -3400,7 +3501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3417,7 +3518,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3434,7 +3535,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -3451,7 +3552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -3468,7 +3569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3482,7 +3583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -3491,13 +3592,13 @@
         <v>9.4444444444444442E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3514,7 +3615,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -3531,7 +3632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -3548,7 +3649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -3565,7 +3666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3582,7 +3683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -3599,7 +3700,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -3616,7 +3717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3650,7 +3751,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -3659,13 +3760,13 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3682,7 +3783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3699,7 +3800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3716,7 +3817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3733,7 +3834,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
         <v>62</v>
       </c>
@@ -3752,7 +3853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3770,7 +3871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3778,7 +3879,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3795,7 +3896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -3804,13 +3905,13 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3827,29 +3928,40 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="12">
         <v>9.7222222222222224E-3</v>
       </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="11"/>
+      <c r="F61" s="13"/>
+      <c r="G61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="2">
         <v>1.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3857,7 +3969,7 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3874,7 +3986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3882,7 +3994,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3899,7 +4011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3916,7 +4028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -3925,7 +4037,7 @@
         <v>8.4722222222222227E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -3952,7 +4064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
@@ -3969,7 +4081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/curso_elton.xlsx
+++ b/curso_elton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -2076,6 +2076,8 @@
 VideoMaker da Ozi: http://eu.queroumvideomaker.com/
 Meu Editor: Heider Freitas 61 98507 1172
 Qual o melhor formato de experiementação que eu gosto e posso gerar?
+Qual tipo de formato que o meu publico gosta?
+A experimentação deve ser no nosso ambiente, ou ambiente reservado.
 Separar as 3 principais ideias do papo que cola colocar no espaco de ideias do canvas 
 Experimentacao tem que acontecer no meu ambiente;
 Definir o formato da entrega das 3 ideias (vides, ebook, palestra etc)
@@ -2193,7 +2195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>Modulo 1</t>
   </si>
@@ -2514,6 +2516,12 @@
   </si>
   <si>
     <t>Não existe jornada de apenas um passo. Priscila Hinkle</t>
+  </si>
+  <si>
+    <t>Usar as mesmas palavras não é garantia de entendimento. É preciso ter experiência em comum com alguém. Friedrich Nietzche</t>
+  </si>
+  <si>
+    <t>Para vencer na vida você não precisa fazer o que os outros não fazem, precisa fazer o que você não faz.</t>
   </si>
 </sst>
 </file>
@@ -3044,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="A26:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3968,6 +3976,15 @@
       <c r="B63" s="2">
         <v>9.0277777777777787E-3</v>
       </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
@@ -3992,6 +4009,15 @@
       </c>
       <c r="B65" s="2">
         <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:7">
